--- a/biology/Zoologie/Cethegus_elegans/Cethegus_elegans.xlsx
+++ b/biology/Zoologie/Cethegus_elegans/Cethegus_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cethegus elegans est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cethegus elegans est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers le parc national de Forty Mile Scrub[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers le parc national de Forty Mile Scrub.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 5,92 mm de long sur 5,92 mm et l'abdomen 6,40 mm de long sur 4,60 mm et la carapace de la femelle paratype mesure 7,50 mm de long sur 6,13 mm et l'abdomen 10,00 mm de long sur 8,20 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 5,92 mm de long sur 5,92 mm et l'abdomen 6,40 mm de long sur 4,60 mm et la carapace de la femelle paratype mesure 7,50 mm de long sur 6,13 mm et l'abdomen 10,00 mm de long sur 8,20 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
